--- a/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_29_.xlsx
+++ b/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_29_.xlsx
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="V6" s="0"/>
-      <c r="W6" s="0" t="d">
+      <c r="W6" s="4" t="d">
         <v>2018-10-04T16:47:36.19</v>
       </c>
     </row>

--- a/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_29_.xlsx
+++ b/reports/_AJT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_29_.xlsx
@@ -2045,7 +2045,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:1</t>
+          <t>Total number of containers:1</t>
         </is>
       </c>
     </row>
